--- a/MedicalLink/Templates/BC_113_DSKhoaHuongTienDVYCCLC.xlsx
+++ b/MedicalLink/Templates/BC_113_DSKhoaHuongTienDVYCCLC.xlsx
@@ -316,6 +316,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -328,26 +334,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -355,62 +355,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -717,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,21 +681,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="18"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="19"/>
       <c r="D2" s="30" t="s">
         <v>13</v>
@@ -763,71 +708,71 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="20"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -838,7 +783,7 @@
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -871,48 +816,21 @@
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="15">
-        <f>SUM(C7:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:L8" si="0">SUM(D7:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L7)</f>
         <v>0</v>
       </c>
       <c r="M8" s="16"/>
@@ -922,10 +840,10 @@
       <c r="C10" s="11"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -977,12 +895,12 @@
     <mergeCell ref="D3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A8 A7:L7 C8:L8">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M8">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
